--- a/commission/Commission After 28th Nov'24.xlsx
+++ b/commission/Commission After 28th Nov'24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\commission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A9E6A9-4D93-4980-8959-6AF5BFE125EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7546D5B4-825F-4AE2-AA57-054BA3B134AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,97 +233,7 @@
     <cellStyle name="??&amp;O龡&amp;H?_x0008_??_x0007__x0001__x0001_" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1041,9 +951,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
